--- a/Documentacion/Fase de construcción/Semana 9/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de construcción/Semana 9/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" activeTab="12"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" tabRatio="598" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="202">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Descripción Actividad</t>
   </si>
   <si>
-    <t>Alejandro Garcia</t>
-  </si>
-  <si>
     <t>Total Línea Gestión de Configuración y Control de Cambios</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>Federico Trindad</t>
   </si>
   <si>
-    <t>Total Análistas</t>
-  </si>
-  <si>
     <t>Total Asistente de Verificación</t>
   </si>
   <si>
@@ -259,24 +253,12 @@
     <t>CU4</t>
   </si>
   <si>
-    <t>Reunion Equipo</t>
-  </si>
-  <si>
-    <t>Reunion con los implementadores para ver el ambiente de desarrolllo</t>
-  </si>
-  <si>
     <t>6/10/2010</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>RTF Planificacion del Proyecto</t>
-  </si>
-  <si>
-    <t>Reunion con el Arquitecto y SQA</t>
-  </si>
-  <si>
     <t>7/10/2010</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>Realizacion de Documentos</t>
-  </si>
-  <si>
     <t>I10</t>
   </si>
   <si>
@@ -340,30 +319,18 @@
     <t>03/10/2010</t>
   </si>
   <si>
-    <t>Implementacion e integracion</t>
-  </si>
-  <si>
     <t>G9</t>
   </si>
   <si>
-    <t>Elavoracion del documento</t>
-  </si>
-  <si>
     <t>Plan de desarrollo</t>
   </si>
   <si>
     <t>I5</t>
   </si>
   <si>
-    <t>Informe de Integracion</t>
-  </si>
-  <si>
     <t>I4</t>
   </si>
   <si>
-    <t>Plan de integracion de la iteracion</t>
-  </si>
-  <si>
     <t>Q5</t>
   </si>
   <si>
@@ -391,15 +358,9 @@
     <t>Reunión verificadores</t>
   </si>
   <si>
-    <t>Configuración del entorno de desarollo para verificar.</t>
-  </si>
-  <si>
     <t>Planificación acciones correctivas RTF</t>
   </si>
   <si>
-    <t>Se armaron excel con la tareas de acuerdo a los planes se enviaron a los responsables para que los completen</t>
-  </si>
-  <si>
     <t>Documentar RTF</t>
   </si>
   <si>
@@ -412,18 +373,12 @@
     <t>Documentar Project</t>
   </si>
   <si>
-    <t>Arme la estructura del project, recursos, entregables y tareas de calidad.</t>
-  </si>
-  <si>
     <t>Revisar entregas</t>
   </si>
   <si>
     <t>Ambiente</t>
   </si>
   <si>
-    <t>Investigacion sobre animaciones y retoques.</t>
-  </si>
-  <si>
     <t>Presentación al director del proyecto</t>
   </si>
   <si>
@@ -457,9 +412,6 @@
     <t>Gestión de riesgos</t>
   </si>
   <si>
-    <t>Documentación semana, analisis de riesgos</t>
-  </si>
-  <si>
     <t>Preparación PPT para fin de fase</t>
   </si>
   <si>
@@ -556,9 +508,6 @@
     <t>10/10/2010</t>
   </si>
   <si>
-    <t>Estudio de herramientas de test unitarios y se comenzo a hacer test de pruebas</t>
-  </si>
-  <si>
     <t>Implementar las Clases</t>
   </si>
   <si>
@@ -571,18 +520,12 @@
     <t>Esfuerzo realizado consolidado</t>
   </si>
   <si>
-    <t>Tabla esfuerzo areas / semana</t>
-  </si>
-  <si>
     <t>Área</t>
   </si>
   <si>
     <t>Horas realizadas semana</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -641,6 +584,60 @@
   </si>
   <si>
     <t>Responsable de la Comunicación</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>Reunión Equipo</t>
+  </si>
+  <si>
+    <t>Reunión con los implementadores para ver el ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>Reunión con el Arquitecto y SQA</t>
+  </si>
+  <si>
+    <t>Realización de Documentos</t>
+  </si>
+  <si>
+    <t>Implementación e integración</t>
+  </si>
+  <si>
+    <t>Elaboración del documento</t>
+  </si>
+  <si>
+    <t>Informe de Integración</t>
+  </si>
+  <si>
+    <t>Plan de integración de la iteración</t>
+  </si>
+  <si>
+    <t>Configuración del entorno de desarrollo para verificar.</t>
+  </si>
+  <si>
+    <t>Se armaron Excel con la tareas de acuerdo a los planes se enviaron a los responsables para que los completen</t>
+  </si>
+  <si>
+    <t>Arme la estructura del Project, recursos, entregables y tareas de calidad.</t>
+  </si>
+  <si>
+    <t>Investigación sobre animaciones y retoques.</t>
+  </si>
+  <si>
+    <t>Documentación semana, análisis de riesgos</t>
+  </si>
+  <si>
+    <t>Estudio de herramientas de test unitarios y se comenzó a hacer test de pruebas</t>
+  </si>
+  <si>
+    <t>Total Analistas</t>
+  </si>
+  <si>
+    <t>Tabla esfuerzo áreas / semana</t>
+  </si>
+  <si>
+    <t>Análisis</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1001,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1220,24 +1217,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="78048640"/>
-        <c:axId val="88303488"/>
+        <c:axId val="69170688"/>
+        <c:axId val="69172224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78048640"/>
+        <c:axId val="69170688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88303488"/>
+        <c:crossAx val="69172224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88303488"/>
+        <c:axId val="69172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1242,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78048640"/>
+        <c:crossAx val="69170688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1260,7 +1257,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1268,7 +1265,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1276,7 +1273,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1492,24 +1489,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="100293248"/>
-        <c:axId val="100365056"/>
+        <c:axId val="69200896"/>
+        <c:axId val="69202688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100293248"/>
+        <c:axId val="69200896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100365056"/>
+        <c:crossAx val="69202688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100365056"/>
+        <c:axId val="69202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1514,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100293248"/>
+        <c:crossAx val="69200896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1532,7 +1529,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1540,7 +1537,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1548,7 +1545,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1660,24 +1657,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="95568256"/>
-        <c:axId val="95569792"/>
+        <c:axId val="69099904"/>
+        <c:axId val="69101440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95568256"/>
+        <c:axId val="69099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95569792"/>
+        <c:crossAx val="69101440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95569792"/>
+        <c:axId val="69101440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,7 +1682,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95568256"/>
+        <c:crossAx val="69099904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1697,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1708,7 +1705,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1716,7 +1713,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1831,24 +1828,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="95200000"/>
-        <c:axId val="95783168"/>
+        <c:axId val="69138304"/>
+        <c:axId val="69139840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95200000"/>
+        <c:axId val="69138304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95783168"/>
+        <c:crossAx val="69139840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95783168"/>
+        <c:axId val="69139840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1853,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95200000"/>
+        <c:crossAx val="69138304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,7 +1868,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1879,7 +1876,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1887,7 +1884,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2005,7 +2002,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2013,7 +2010,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2021,7 +2018,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2139,7 +2136,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2147,7 +2144,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3304,7 +3301,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3325,20 +3322,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3347,16 +3344,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3365,13 +3362,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -3379,7 +3376,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3388,165 +3385,165 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16">
         <v>0.5</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18">
         <v>10</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -3597,7 +3594,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -3620,7 +3617,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3643,12 +3640,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -3665,19 +3662,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -3685,222 +3682,222 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D5" s="16">
         <v>2.5</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D6" s="18">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D9" s="18">
         <v>2.5</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16">
         <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D14" s="16">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -3944,7 +3941,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -3967,7 +3964,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3988,20 +3985,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4010,16 +4007,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -4028,23 +4025,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4053,62 +4050,62 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" s="18">
         <v>3.5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -4208,7 +4205,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="23">
         <f>SUM(D4:D30)</f>
@@ -4231,7 +4228,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4254,20 +4251,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -4276,19 +4273,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4296,13 +4293,13 @@
     </row>
     <row r="5" spans="1:11" s="29" customFormat="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
@@ -4311,7 +4308,7 @@
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
@@ -4319,42 +4316,42 @@
     </row>
     <row r="6" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
@@ -4444,7 +4441,7 @@
     </row>
     <row r="29" spans="3:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -4466,8 +4463,8 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4480,19 +4477,19 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -4506,14 +4503,14 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="36" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D5" s="36"/>
     </row>
@@ -4521,10 +4518,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="36" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -4544,14 +4541,14 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"D*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"D*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"D*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"D*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"D*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"D*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"D*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"D*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"D*")</f>
         <v>11.5</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D8" s="36">
         <v>11.5</v>
@@ -4559,14 +4556,14 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"I*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"I*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"I*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"I*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"I*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"I*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"I*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"I*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"I*")</f>
         <v>88.5</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D9" s="36">
         <v>88.5</v>
@@ -4581,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D10" s="36">
         <v>12</v>
@@ -4589,14 +4586,14 @@
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"C*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"C*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"C*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"C*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"C*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"C*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"C*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"C*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"C*")</f>
         <v>4</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D11" s="36">
         <v>4</v>
@@ -4611,7 +4608,7 @@
         <v>33.5</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D12" s="36">
         <v>33.5</v>
@@ -4619,14 +4616,14 @@
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"V*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"V*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"V*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"V*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"V*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"V*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"V*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"V*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"V*")</f>
         <v>21.5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D13" s="36">
         <v>21.5</v>
@@ -4634,14 +4631,14 @@
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"U*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"U*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"U*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"U*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"U*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"U*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"U*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"U*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"U*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -4649,14 +4646,14 @@
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"P*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"P*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"P*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"P*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"P*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"P*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"P*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"P*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"P*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
@@ -4664,14 +4661,14 @@
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="26">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"E*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"E*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"E*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"E*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"E*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"E*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"E*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"E*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"E*")</f>
         <v>19</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D16" s="36">
         <v>19</v>
@@ -4686,22 +4683,22 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="36" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="B19" s="24">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!F5:'2 _ Diego Ricca'!F28,"Si") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!F5:'7 _ José Cordero'!F28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!F5:'9 _ Leticia Vilariño'!F28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!F5:'11 _ Martín Taruselli'!F28,D5)</f>
         <v>0</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D19" s="36">
         <v>216.5</v>
@@ -4709,11 +4706,11 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="36" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -4721,14 +4718,14 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!F5:'10 _ Marcos Sander'!F28,D5)</f>
         <v>0</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D21" s="36">
         <v>111</v>
@@ -4736,14 +4733,14 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="25">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!H5:'10 _ Marcos Sander'!H28,D5)</f>
         <v>0</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D22" s="36">
         <v>3</v>
@@ -4758,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D23" s="36">
         <v>505.5</v>
@@ -4766,14 +4763,14 @@
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="25">
         <f xml:space="preserve"> SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!F5:'3 _ Federico Andrade'!F28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!F5:'4 _ Federico Trinidad'!F28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!F5:'5 _ Ignacio Infante'!F28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!G5:'12 _ Vicente Acosta'!G28,D5)</f>
         <v>0</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D24" s="36">
         <v>327.5</v>
@@ -4788,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D25" s="36">
         <v>133</v>
@@ -4803,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D26" s="36">
         <v>39.5</v>
@@ -4811,14 +4808,14 @@
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="25">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!F5:'1 _ Alejandro Garcia'!F28,D5) + SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!G5:'1 _ Alejandro Garcia'!G28,D5)</f>
         <v>0</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D27" s="36">
         <v>154.5</v>
@@ -4826,14 +4823,14 @@
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="25">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!G5:'6 _ Javier Madeiro'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!H5:'7 _ José Cordero'!H28,D5) + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!G5:'8 _ Juan Ghiringhelli'!G28,D5) + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!G5:'10 _ Marcos Sander'!G28,D5)</f>
         <v>0</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D28" s="36">
         <v>16</v>
@@ -4841,14 +4838,14 @@
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!F5:'8 _ Juan Ghiringhelli'!F28,D5)</f>
         <v>0</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D29" s="36">
         <v>140</v>
@@ -4856,14 +4853,14 @@
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="25">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!H5:'8 _ Juan Ghiringhelli'!H28,D5)</f>
         <v>0</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D30" s="36">
         <v>4</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="9"/>
@@ -4880,13 +4877,13 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="36" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -4898,14 +4895,14 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="B34" s="24">
         <f>SUM( '1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28)</f>
         <v>23</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D34" s="36">
         <v>135</v>
@@ -4916,14 +4913,14 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="25">
         <f>SUM( '2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28)</f>
         <v>14</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="36">
         <v>135</v>
@@ -4934,14 +4931,14 @@
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="25">
         <f>SUM( '3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28)</f>
         <v>16</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="36">
         <v>135</v>
@@ -4952,14 +4949,14 @@
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="25">
         <f>SUM( '4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28)</f>
         <v>10</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="36">
         <v>135</v>
@@ -5006,14 +5003,14 @@
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="25">
         <f>SUM( '7 _ José Cordero'!D5:'7 _ José Cordero'!D28)</f>
         <v>16</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="36">
         <v>135</v>
@@ -5042,14 +5039,14 @@
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="25">
         <f>SUM( '9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28)</f>
         <v>18</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="36">
         <v>135</v>
@@ -5078,14 +5075,14 @@
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="25">
         <f>SUM( '11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28)</f>
         <v>14</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="36">
         <v>135</v>
@@ -5096,14 +5093,14 @@
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="26">
         <f>SUM( '12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28)</f>
         <v>10.5</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="36">
         <v>135</v>
@@ -5140,7 +5137,7 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5161,7 +5158,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5182,7 +5179,7 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -5199,7 +5196,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5220,20 +5217,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5242,16 +5239,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5260,23 +5257,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5285,42 +5282,42 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1.5</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D7" s="20">
         <v>4.5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -5444,7 +5441,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D4:D28)</f>
@@ -5467,7 +5464,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5489,20 +5486,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5511,16 +5508,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5529,13 +5526,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D5" s="18">
         <v>10</v>
@@ -5543,7 +5540,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5552,37 +5549,37 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="18">
         <v>4</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
@@ -5679,7 +5676,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>
@@ -5699,7 +5696,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5721,20 +5718,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5743,16 +5740,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5761,23 +5758,23 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18">
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5869,7 +5866,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -5892,7 +5889,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5916,12 +5913,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -5929,7 +5926,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -5938,16 +5935,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -5956,13 +5953,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="D5" s="18">
         <v>6</v>
@@ -5970,7 +5967,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5979,81 +5976,81 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="D8" s="18">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -6134,7 +6131,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6157,7 +6154,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6180,12 +6177,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -6193,7 +6190,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6202,16 +6199,16 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -6220,22 +6217,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D5" s="18">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6245,156 +6242,156 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D8" s="18">
         <v>1.5</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D11" s="18">
         <v>0.5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D13" s="16">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -6444,7 +6441,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6467,7 +6464,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6491,20 +6488,20 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6513,19 +6510,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6533,102 +6530,102 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D9" s="18">
         <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -6698,7 +6695,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -6721,7 +6718,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6744,12 +6741,12 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -6757,7 +6754,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -6766,19 +6763,19 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6786,22 +6783,22 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D5" s="18">
         <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -6811,122 +6808,122 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="28" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D6" s="18">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" s="32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D11" s="34">
         <v>4</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -6998,7 +6995,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23">
         <f>SUM(D4:D28)</f>
@@ -7020,8 +7017,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7042,20 +7039,20 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -7064,44 +7061,44 @@
         <v>14</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="63.75">
       <c r="A5" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D5" s="18">
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -7109,62 +7106,62 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D8" s="18">
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
@@ -7248,7 +7245,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <f>SUM(D5:D29)</f>

--- a/Documentacion/Fase de construcción/Semana 9/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de construcción/Semana 9/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" tabRatio="598" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" tabRatio="598" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -1217,24 +1217,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69170688"/>
-        <c:axId val="69172224"/>
+        <c:axId val="36341248"/>
+        <c:axId val="36342784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69170688"/>
+        <c:axId val="36341248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69172224"/>
+        <c:crossAx val="36342784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69172224"/>
+        <c:axId val="36342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69170688"/>
+        <c:crossAx val="36341248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1265,7 +1264,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1489,24 +1488,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69200896"/>
-        <c:axId val="69202688"/>
+        <c:axId val="36363264"/>
+        <c:axId val="36365056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69200896"/>
+        <c:axId val="36363264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69202688"/>
+        <c:crossAx val="36365056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69202688"/>
+        <c:axId val="36365056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,14 +1513,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69200896"/>
+        <c:crossAx val="36363264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1537,7 +1535,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1547,9 +1545,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1657,24 +1653,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69099904"/>
-        <c:axId val="69101440"/>
+        <c:axId val="36540800"/>
+        <c:axId val="36542336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69099904"/>
+        <c:axId val="36540800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69101440"/>
+        <c:crossAx val="36542336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69101440"/>
+        <c:axId val="36542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,14 +1678,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69099904"/>
+        <c:crossAx val="36540800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1705,7 +1700,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1715,9 +1710,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1828,24 +1821,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69138304"/>
-        <c:axId val="69139840"/>
+        <c:axId val="36575104"/>
+        <c:axId val="36576640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69138304"/>
+        <c:axId val="36575104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69139840"/>
+        <c:crossAx val="36576640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69139840"/>
+        <c:axId val="36576640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,14 +1846,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69138304"/>
+        <c:crossAx val="36575104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1876,7 +1868,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2010,7 +2002,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2144,7 +2136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5179,7 +5171,7 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6153,7 +6145,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
